--- a/WorkBot/main/backend/orders/OrderFiles/Hill & Markes/Hill & Markes_TRIPHAMMER_20250221.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Hill & Markes/Hill & Markes_TRIPHAMMER_20250221.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,168 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6G063015</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bag Poly - 6x3x15 LW</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TS16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tamper Evident - 16oz</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TS8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tamper Evident - 8oz</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12018T300</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cont Salad - 18 oz</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SAB52032T300</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lid Salad - 24/32oz Sabert (Round)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SAB12032T300</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cont Salad - 32oz Sabert (Round)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
